--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -55,12 +55,12 @@
     <t>Alibaba</t>
   </si>
   <si>
+    <t>JD.com</t>
+  </si>
+  <si>
     <t>PowerShares S&amp;P 500 High Dividend Low Volatility ETF</t>
   </si>
   <si>
-    <t>JD.com</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
@@ -73,10 +73,10 @@
     <t>BABA</t>
   </si>
   <si>
+    <t>JD</t>
+  </si>
+  <si>
     <t>SPHD</t>
-  </si>
-  <si>
-    <t>JD</t>
   </si>
   <si>
     <t>stock</t>
@@ -492,16 +492,16 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3278.6647</v>
+        <v>3290.45</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3280.94</v>
+        <v>3281.18</v>
       </c>
       <c r="H2">
-        <v>3278.66</v>
+        <v>3368.61</v>
       </c>
       <c r="I2">
         <v>122.33</v>
@@ -524,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>459.54</v>
+        <v>467.8811</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -533,7 +533,7 @@
         <v>426.62</v>
       </c>
       <c r="H3">
-        <v>4595.4</v>
+        <v>4678.81</v>
       </c>
       <c r="I3">
         <v>34.84</v>
@@ -556,7 +556,7 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1884.1707</v>
+        <v>1884.3</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>1755.03</v>
       </c>
       <c r="H4">
-        <v>3768.34</v>
+        <v>3768.6</v>
       </c>
       <c r="I4">
         <v>955.3200000000001</v>
@@ -588,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>258.49</v>
+        <v>259.0625</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -597,10 +597,10 @@
         <v>246.09</v>
       </c>
       <c r="H5">
-        <v>2584.9</v>
+        <v>2590.62</v>
       </c>
       <c r="I5">
-        <v>31.14</v>
+        <v>31.51</v>
       </c>
       <c r="J5">
         <v>0.16</v>
@@ -617,25 +617,25 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>34.4605</v>
+        <v>72.3138</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>34.78</v>
+        <v>63.09</v>
       </c>
       <c r="H6">
-        <v>1168.4</v>
+        <v>289.26</v>
       </c>
       <c r="I6">
-        <v>16.08</v>
+        <v>32.13</v>
       </c>
       <c r="J6">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -649,25 +649,25 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>70.40000000000001</v>
+        <v>34.4971</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G7">
-        <v>63.09</v>
+        <v>34.78</v>
       </c>
       <c r="H7">
-        <v>281.6</v>
+        <v>1169.64</v>
       </c>
       <c r="I7">
-        <v>107</v>
+        <v>16.08</v>
       </c>
       <c r="J7">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -58,7 +58,16 @@
     <t>JD.com</t>
   </si>
   <si>
-    <t>PowerShares S&amp;P 500 High Dividend Low Volatility ETF</t>
+    <t>AGNC Investment</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Enphase Energy</t>
   </si>
   <si>
     <t>AMZN</t>
@@ -76,7 +85,16 @@
     <t>JD</t>
   </si>
   <si>
-    <t>SPHD</t>
+    <t>AGNC</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>ENPH</t>
   </si>
   <si>
     <t>stock</t>
@@ -85,7 +103,7 @@
     <t>adr</t>
   </si>
   <si>
-    <t>etp</t>
+    <t>reit</t>
   </si>
 </sst>
 </file>
@@ -443,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,13 +504,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>3290.45</v>
+        <v>3293.71</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -501,10 +519,10 @@
         <v>3281.18</v>
       </c>
       <c r="H2">
-        <v>3368.61</v>
+        <v>3371.95</v>
       </c>
       <c r="I2">
-        <v>122.33</v>
+        <v>125.33</v>
       </c>
       <c r="J2">
         <v>0.22</v>
@@ -518,13 +536,13 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>467.8811</v>
+        <v>482.9701</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -533,10 +551,10 @@
         <v>426.62</v>
       </c>
       <c r="H3">
-        <v>4678.81</v>
+        <v>4829.7</v>
       </c>
       <c r="I3">
-        <v>34.84</v>
+        <v>35.18</v>
       </c>
       <c r="J3">
         <v>0.29</v>
@@ -550,13 +568,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1884.3</v>
+        <v>2069.305</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -565,13 +583,13 @@
         <v>1755.03</v>
       </c>
       <c r="H4">
-        <v>3768.6</v>
+        <v>4138.61</v>
       </c>
       <c r="I4">
-        <v>955.3200000000001</v>
+        <v>977.64</v>
       </c>
       <c r="J4">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -582,28 +600,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E5">
-        <v>259.0625</v>
+        <v>259.3397</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <v>246.09</v>
       </c>
       <c r="H5">
-        <v>2590.62</v>
+        <v>1296.7</v>
       </c>
       <c r="I5">
-        <v>31.51</v>
+        <v>31.95</v>
       </c>
       <c r="J5">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -614,13 +632,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6">
-        <v>72.3138</v>
+        <v>74.41</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -629,10 +647,10 @@
         <v>63.09</v>
       </c>
       <c r="H6">
-        <v>289.26</v>
+        <v>297.64</v>
       </c>
       <c r="I6">
-        <v>32.13</v>
+        <v>34.8</v>
       </c>
       <c r="J6">
         <v>0.02</v>
@@ -646,28 +664,121 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>34.4971</v>
+        <v>13.945</v>
       </c>
       <c r="F7">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="G7">
-        <v>34.78</v>
+        <v>13.94</v>
       </c>
       <c r="H7">
-        <v>1169.64</v>
-      </c>
-      <c r="I7">
-        <v>16.08</v>
+        <v>800.45</v>
       </c>
       <c r="J7">
-        <v>0.08</v>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>47.195</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>47.27</v>
+      </c>
+      <c r="H8">
+        <v>350.02</v>
+      </c>
+      <c r="I8">
+        <v>22.28</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>151.08</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>150.94</v>
+      </c>
+      <c r="H9">
+        <v>921.92</v>
+      </c>
+      <c r="I9">
+        <v>26.43</v>
+      </c>
+      <c r="J9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>74.745</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="H10">
+        <v>373.73</v>
+      </c>
+      <c r="I10">
+        <v>61.16</v>
+      </c>
+      <c r="J10">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -52,24 +52,27 @@
     <t>Tesla</t>
   </si>
   <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
     <t>Alibaba</t>
   </si>
   <si>
     <t>JD.com</t>
   </si>
   <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Delta Air Lines</t>
+  </si>
+  <si>
     <t>AGNC Investment</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
-    <t>Enphase Energy</t>
-  </si>
-  <si>
     <t>AMZN</t>
   </si>
   <si>
@@ -79,22 +82,25 @@
     <t>TSLA</t>
   </si>
   <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
     <t>BABA</t>
   </si>
   <si>
     <t>JD</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
     <t>AGNC</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>ENPH</t>
   </si>
   <si>
     <t>stock</t>
@@ -461,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,28 +510,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>3293.71</v>
+        <v>3402</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3281.18</v>
+        <v>3291.31</v>
       </c>
       <c r="H2">
-        <v>3371.95</v>
+        <v>4154.72</v>
       </c>
       <c r="I2">
-        <v>125.33</v>
+        <v>130.69</v>
       </c>
       <c r="J2">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -536,28 +542,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>482.9701</v>
+        <v>125.5</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>426.62</v>
+        <v>106.65</v>
       </c>
       <c r="H3">
-        <v>4829.7</v>
+        <v>5020</v>
       </c>
       <c r="I3">
-        <v>35.18</v>
+        <v>38.01</v>
       </c>
       <c r="J3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -568,28 +574,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
-        <v>2069.305</v>
+        <v>443.398</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>1755.03</v>
+        <v>351.01</v>
       </c>
       <c r="H4">
-        <v>4138.61</v>
+        <v>2216.99</v>
       </c>
       <c r="I4">
-        <v>977.64</v>
+        <v>1165.11</v>
       </c>
       <c r="J4">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -600,28 +606,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>259.3397</v>
+        <v>153.42</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>246.09</v>
+        <v>151.53</v>
       </c>
       <c r="H5">
-        <v>1296.7</v>
+        <v>2233.72</v>
       </c>
       <c r="I5">
-        <v>31.95</v>
+        <v>26.89</v>
       </c>
       <c r="J5">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -632,28 +638,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>74.41</v>
+        <v>49.83</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>63.09</v>
+        <v>47.44</v>
       </c>
       <c r="H6">
-        <v>297.64</v>
+        <v>489.12</v>
       </c>
       <c r="I6">
-        <v>34.8</v>
+        <v>22.68</v>
       </c>
       <c r="J6">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -664,25 +670,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>13.945</v>
+        <v>288.74</v>
       </c>
       <c r="F7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>13.94</v>
+        <v>246.09</v>
       </c>
       <c r="H7">
-        <v>800.45</v>
+        <v>1443.7</v>
+      </c>
+      <c r="I7">
+        <v>30.05</v>
       </c>
       <c r="J7">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -693,28 +702,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>47.195</v>
+        <v>79.86</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>47.27</v>
+        <v>74.83</v>
       </c>
       <c r="H8">
-        <v>350.02</v>
+        <v>543.34</v>
       </c>
       <c r="I8">
-        <v>22.28</v>
+        <v>38.52</v>
       </c>
       <c r="J8">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -725,28 +734,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>151.08</v>
+        <v>215.88</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>150.94</v>
+        <v>208.4</v>
       </c>
       <c r="H9">
-        <v>921.92</v>
+        <v>651.58</v>
       </c>
       <c r="I9">
-        <v>26.43</v>
+        <v>41.19</v>
       </c>
       <c r="J9">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -757,28 +766,54 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>74.745</v>
+        <v>31.95</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>74.51000000000001</v>
+        <v>28.82</v>
       </c>
       <c r="H10">
-        <v>373.73</v>
-      </c>
-      <c r="I10">
-        <v>61.16</v>
+        <v>168.83</v>
       </c>
       <c r="J10">
-        <v>0.02</v>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>14.14</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>13.94</v>
+      </c>
+      <c r="H11">
+        <v>66.43000000000001</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Name</t>
   </si>
@@ -49,28 +49,40 @@
     <t>Apple</t>
   </si>
   <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Alibaba</t>
+  </si>
+  <si>
     <t>Tesla</t>
   </si>
   <si>
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Alibaba</t>
+    <t>Itochu</t>
   </si>
   <si>
     <t>JD.com</t>
   </si>
   <si>
-    <t>Visa</t>
+    <t>AGNC Investment</t>
   </si>
   <si>
     <t>Delta Air Lines</t>
   </si>
   <si>
-    <t>AGNC Investment</t>
+    <t>Realty Income</t>
+  </si>
+  <si>
+    <t>SPDR Gold Trust</t>
+  </si>
+  <si>
+    <t>Vanguard Total International Bond ETF</t>
   </si>
   <si>
     <t>AMZN</t>
@@ -79,28 +91,40 @@
     <t>AAPL</t>
   </si>
   <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>KO</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
     <t>TSLA</t>
   </si>
   <si>
     <t>JNJ</t>
   </si>
   <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>BABA</t>
+    <t>ITOCY</t>
   </si>
   <si>
     <t>JD</t>
   </si>
   <si>
-    <t>V</t>
+    <t>AGNC</t>
   </si>
   <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>AGNC</t>
+    <t>O</t>
+  </si>
+  <si>
+    <t>GLD</t>
+  </si>
+  <si>
+    <t>BNDX</t>
   </si>
   <si>
     <t>stock</t>
@@ -110,6 +134,9 @@
   </si>
   <si>
     <t>reit</t>
+  </si>
+  <si>
+    <t>etp</t>
   </si>
 </sst>
 </file>
@@ -467,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,28 +537,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E2">
-        <v>3402</v>
+        <v>3488</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>1.221258</v>
       </c>
       <c r="G2">
         <v>3291.31</v>
       </c>
       <c r="H2">
-        <v>4154.72</v>
+        <v>4259.75</v>
       </c>
       <c r="I2">
-        <v>130.69</v>
+        <v>130.76</v>
       </c>
       <c r="J2">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -542,28 +569,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>125.5</v>
+        <v>131.6</v>
       </c>
       <c r="F3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>106.65</v>
       </c>
       <c r="H3">
-        <v>5020</v>
+        <v>3948</v>
       </c>
       <c r="I3">
         <v>38.01</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -574,28 +601,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>443.398</v>
+        <v>213</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>7.722968</v>
       </c>
       <c r="G4">
-        <v>351.01</v>
+        <v>210.93</v>
       </c>
       <c r="H4">
-        <v>2216.99</v>
+        <v>1644.99</v>
       </c>
       <c r="I4">
-        <v>1165.11</v>
+        <v>42.11</v>
       </c>
       <c r="J4">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -606,28 +633,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>153.42</v>
+        <v>49.58</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>28.664259</v>
       </c>
       <c r="G5">
-        <v>151.53</v>
+        <v>48.9</v>
       </c>
       <c r="H5">
-        <v>2233.72</v>
+        <v>1421.17</v>
       </c>
       <c r="I5">
-        <v>26.89</v>
+        <v>23.43</v>
       </c>
       <c r="J5">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -638,28 +665,28 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E6">
-        <v>49.83</v>
+        <v>289.2</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>47.44</v>
+        <v>246.09</v>
       </c>
       <c r="H6">
-        <v>489.12</v>
+        <v>1446</v>
       </c>
       <c r="I6">
-        <v>22.68</v>
+        <v>30.57</v>
       </c>
       <c r="J6">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -670,28 +697,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>288.74</v>
+        <v>502.01</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2.642841</v>
       </c>
       <c r="G7">
-        <v>246.09</v>
+        <v>351.01</v>
       </c>
       <c r="H7">
-        <v>1443.7</v>
+        <v>1326.73</v>
       </c>
       <c r="I7">
-        <v>30.05</v>
+        <v>1165.11</v>
       </c>
       <c r="J7">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -702,28 +729,28 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>79.86</v>
+        <v>153.68</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>10.635299</v>
       </c>
       <c r="G8">
-        <v>74.83</v>
+        <v>151.53</v>
       </c>
       <c r="H8">
-        <v>543.34</v>
+        <v>1634.43</v>
       </c>
       <c r="I8">
-        <v>38.52</v>
+        <v>27.01</v>
       </c>
       <c r="J8">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -734,28 +761,28 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>215.88</v>
+        <v>52.8</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>22.539148</v>
       </c>
       <c r="G9">
-        <v>208.4</v>
+        <v>53.24</v>
       </c>
       <c r="H9">
-        <v>651.58</v>
+        <v>1190.07</v>
       </c>
       <c r="I9">
-        <v>41.19</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -766,25 +793,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>31.95</v>
+        <v>79.175</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>7.674245</v>
       </c>
       <c r="G10">
-        <v>28.82</v>
+        <v>75.33</v>
       </c>
       <c r="H10">
-        <v>168.83</v>
+        <v>607.61</v>
+      </c>
+      <c r="I10">
+        <v>38.84</v>
       </c>
       <c r="J10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -795,25 +825,144 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E11">
-        <v>14.14</v>
+        <v>14.13</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>33.870244</v>
       </c>
       <c r="G11">
-        <v>13.94</v>
+        <v>14.01</v>
       </c>
       <c r="H11">
-        <v>66.43000000000001</v>
+        <v>478.59</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>30.4</v>
+      </c>
+      <c r="F12">
+        <v>5.28407</v>
+      </c>
+      <c r="G12">
+        <v>28.82</v>
+      </c>
+      <c r="H12">
+        <v>160.64</v>
+      </c>
+      <c r="J12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>62.064</v>
+      </c>
+      <c r="F13">
+        <v>16.15034</v>
+      </c>
+      <c r="G13">
+        <v>61.92</v>
+      </c>
+      <c r="H13">
+        <v>1002.35</v>
+      </c>
+      <c r="I13">
+        <v>43.6</v>
+      </c>
+      <c r="J13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>186.89</v>
+      </c>
+      <c r="F14">
+        <v>10.803511</v>
+      </c>
+      <c r="G14">
+        <v>185.12</v>
+      </c>
+      <c r="H14">
+        <v>2019.07</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>57.74</v>
+      </c>
+      <c r="F15">
+        <v>17.319159</v>
+      </c>
+      <c r="G15">
+        <v>57.74</v>
+      </c>
+      <c r="H15">
+        <v>1000.01</v>
+      </c>
+      <c r="J15">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -43,100 +43,49 @@
     <t>Weights</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
     <t>Apple</t>
   </si>
   <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>Alibaba</t>
+    <t>Johnson &amp; Johnson</t>
   </si>
   <si>
     <t>Tesla</t>
   </si>
   <si>
-    <t>Johnson &amp; Johnson</t>
-  </si>
-  <si>
-    <t>Itochu</t>
-  </si>
-  <si>
-    <t>JD.com</t>
+    <t>Lemonade</t>
   </si>
   <si>
     <t>AGNC Investment</t>
   </si>
   <si>
-    <t>Delta Air Lines</t>
-  </si>
-  <si>
-    <t>Realty Income</t>
-  </si>
-  <si>
-    <t>SPDR Gold Trust</t>
-  </si>
-  <si>
-    <t>Vanguard Total International Bond ETF</t>
-  </si>
-  <si>
-    <t>AMZN</t>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Exxon Mobil</t>
   </si>
   <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>KO</t>
-  </si>
-  <si>
-    <t>BABA</t>
+    <t>JNJ</t>
   </si>
   <si>
     <t>TSLA</t>
   </si>
   <si>
-    <t>JNJ</t>
-  </si>
-  <si>
-    <t>ITOCY</t>
-  </si>
-  <si>
-    <t>JD</t>
+    <t>LMND</t>
   </si>
   <si>
     <t>AGNC</t>
   </si>
   <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>GLD</t>
-  </si>
-  <si>
-    <t>BNDX</t>
+    <t>XOM</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>adr</t>
-  </si>
-  <si>
     <t>reit</t>
-  </si>
-  <si>
-    <t>etp</t>
   </si>
 </sst>
 </file>
@@ -494,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,28 +486,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>3488</v>
+        <v>122.25</v>
       </c>
       <c r="F2">
-        <v>1.221258</v>
+        <v>46.574502</v>
       </c>
       <c r="G2">
-        <v>3291.31</v>
+        <v>131.67</v>
       </c>
       <c r="H2">
-        <v>4259.75</v>
+        <v>5693.73</v>
       </c>
       <c r="I2">
-        <v>130.76</v>
+        <v>32.73</v>
       </c>
       <c r="J2">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -569,28 +518,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>131.6</v>
+        <v>159.35</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>18.952928</v>
       </c>
       <c r="G3">
-        <v>106.65</v>
+        <v>161.88</v>
       </c>
       <c r="H3">
-        <v>3948</v>
+        <v>3020.15</v>
       </c>
       <c r="I3">
-        <v>38.01</v>
+        <v>28.62</v>
       </c>
       <c r="J3">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -601,28 +550,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>213</v>
+        <v>698.51</v>
       </c>
       <c r="F4">
-        <v>7.722968</v>
+        <v>3.358564</v>
       </c>
       <c r="G4">
-        <v>210.93</v>
+        <v>714.29</v>
       </c>
       <c r="H4">
-        <v>1644.99</v>
+        <v>2345.99</v>
       </c>
       <c r="I4">
-        <v>42.11</v>
+        <v>1057.26</v>
       </c>
       <c r="J4">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -633,25 +582,22 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>49.58</v>
+        <v>107.6</v>
       </c>
       <c r="F5">
-        <v>28.664259</v>
+        <v>8.944646000000001</v>
       </c>
       <c r="G5">
-        <v>48.9</v>
+        <v>114.59</v>
       </c>
       <c r="H5">
-        <v>1421.17</v>
-      </c>
-      <c r="I5">
-        <v>23.43</v>
+        <v>962.4400000000001</v>
       </c>
       <c r="J5">
         <v>0.07000000000000001</v>
@@ -665,28 +611,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>289.2</v>
+        <v>16.42</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>41.35009</v>
       </c>
       <c r="G6">
-        <v>246.09</v>
+        <v>16.03</v>
       </c>
       <c r="H6">
-        <v>1446</v>
-      </c>
-      <c r="I6">
-        <v>30.57</v>
+        <v>678.97</v>
       </c>
       <c r="J6">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -697,28 +640,28 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>502.01</v>
+        <v>127.18</v>
       </c>
       <c r="F7">
-        <v>2.642841</v>
+        <v>3.04313</v>
       </c>
       <c r="G7">
-        <v>351.01</v>
+        <v>118.27</v>
       </c>
       <c r="H7">
-        <v>1326.73</v>
+        <v>387.03</v>
       </c>
       <c r="I7">
-        <v>1165.11</v>
+        <v>19.92</v>
       </c>
       <c r="J7">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -729,240 +672,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>153.68</v>
+        <v>61.3</v>
       </c>
       <c r="F8">
-        <v>10.635299</v>
+        <v>4.720835</v>
       </c>
       <c r="G8">
-        <v>151.53</v>
+        <v>56.38</v>
       </c>
       <c r="H8">
-        <v>1634.43</v>
-      </c>
-      <c r="I8">
-        <v>27.01</v>
+        <v>289.39</v>
       </c>
       <c r="J8">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9">
-        <v>52.8</v>
-      </c>
-      <c r="F9">
-        <v>22.539148</v>
-      </c>
-      <c r="G9">
-        <v>53.24</v>
-      </c>
-      <c r="H9">
-        <v>1190.07</v>
-      </c>
-      <c r="I9">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="J9">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10">
-        <v>79.175</v>
-      </c>
-      <c r="F10">
-        <v>7.674245</v>
-      </c>
-      <c r="G10">
-        <v>75.33</v>
-      </c>
-      <c r="H10">
-        <v>607.61</v>
-      </c>
-      <c r="I10">
-        <v>38.84</v>
-      </c>
-      <c r="J10">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11">
-        <v>14.13</v>
-      </c>
-      <c r="F11">
-        <v>33.870244</v>
-      </c>
-      <c r="G11">
-        <v>14.01</v>
-      </c>
-      <c r="H11">
-        <v>478.59</v>
-      </c>
-      <c r="J11">
         <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12">
-        <v>30.4</v>
-      </c>
-      <c r="F12">
-        <v>5.28407</v>
-      </c>
-      <c r="G12">
-        <v>28.82</v>
-      </c>
-      <c r="H12">
-        <v>160.64</v>
-      </c>
-      <c r="J12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13">
-        <v>62.064</v>
-      </c>
-      <c r="F13">
-        <v>16.15034</v>
-      </c>
-      <c r="G13">
-        <v>61.92</v>
-      </c>
-      <c r="H13">
-        <v>1002.35</v>
-      </c>
-      <c r="I13">
-        <v>43.6</v>
-      </c>
-      <c r="J13">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>186.89</v>
-      </c>
-      <c r="F14">
-        <v>10.803511</v>
-      </c>
-      <c r="G14">
-        <v>185.12</v>
-      </c>
-      <c r="H14">
-        <v>2019.07</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15">
-        <v>57.74</v>
-      </c>
-      <c r="F15">
-        <v>17.319159</v>
-      </c>
-      <c r="G15">
-        <v>57.74</v>
-      </c>
-      <c r="H15">
-        <v>1000.01</v>
-      </c>
-      <c r="J15">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
